--- a/Motor_Step_calculation.xlsx
+++ b/Motor_Step_calculation.xlsx
@@ -12,11 +12,12 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="124519"/>
+  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -217,12 +218,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1072,31 +1073,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:20" ht="15.75" thickBot="1">
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="24" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-      <c r="H1" s="21"/>
-      <c r="J1" s="20" t="s">
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="H1" s="20"/>
+      <c r="J1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="K1" s="20"/>
-      <c r="L1" s="20"/>
-      <c r="Q1" s="20" t="s">
+      <c r="K1" s="24"/>
+      <c r="L1" s="24"/>
+      <c r="Q1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
     </row>
     <row r="2" spans="1:20">
       <c r="B2">
@@ -1112,7 +1113,7 @@
       <c r="E2">
         <v>26126</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>121600</v>
       </c>
       <c r="J2">
@@ -1128,13 +1129,13 @@
       <c r="M2">
         <v>2000</v>
       </c>
-      <c r="N2" s="22">
+      <c r="N2" s="21">
         <v>89600</v>
       </c>
       <c r="Q2">
         <v>146.65</v>
       </c>
-      <c r="T2" s="22">
+      <c r="T2" s="21">
         <f>5.18* (37/24) * 6400</f>
         <v>51109.333333333328</v>
       </c>
@@ -1150,7 +1151,7 @@
         <f>E2/D2*D3</f>
         <v>25115.974226804119</v>
       </c>
-      <c r="F3" s="23"/>
+      <c r="F3" s="22"/>
       <c r="J3">
         <v>24.1</v>
       </c>
@@ -1165,8 +1166,8 @@
         <f>M2/L2*L3</f>
         <v>2048.1927710843379</v>
       </c>
-      <c r="N3" s="23"/>
-      <c r="T3" s="23"/>
+      <c r="N3" s="22"/>
+      <c r="T3" s="22"/>
     </row>
     <row r="4" spans="1:20">
       <c r="D4">
@@ -1176,7 +1177,7 @@
         <f>E2/D2*D4</f>
         <v>24105.948453608242</v>
       </c>
-      <c r="F4" s="23"/>
+      <c r="F4" s="22"/>
       <c r="L4">
         <v>8.6999999999999993</v>
       </c>
@@ -1184,8 +1185,8 @@
         <f>M2/L2*L4</f>
         <v>2096.3855421686753</v>
       </c>
-      <c r="N4" s="23"/>
-      <c r="T4" s="23"/>
+      <c r="N4" s="22"/>
+      <c r="T4" s="22"/>
     </row>
     <row r="5" spans="1:20">
       <c r="D5">
@@ -1195,7 +1196,7 @@
         <f>E2/D2*D5</f>
         <v>23095.922680412365</v>
       </c>
-      <c r="F5" s="23"/>
+      <c r="F5" s="22"/>
       <c r="L5">
         <v>9.1</v>
       </c>
@@ -1203,18 +1204,18 @@
         <f>M2/L2*L5</f>
         <v>2192.7710843373497</v>
       </c>
-      <c r="N5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="N5" s="22"/>
+      <c r="T5" s="22"/>
     </row>
     <row r="6" spans="1:20">
-      <c r="F6" s="23"/>
-      <c r="N6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="F6" s="22"/>
+      <c r="N6" s="22"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="1:20" ht="15.75" thickBot="1">
-      <c r="F7" s="24"/>
-      <c r="N7" s="24"/>
-      <c r="T7" s="23"/>
+      <c r="F7" s="23"/>
+      <c r="N7" s="23"/>
+      <c r="T7" s="22"/>
     </row>
     <row r="8" spans="1:20">
       <c r="A8">
@@ -1231,12 +1232,12 @@
         <f>E2/D2*D8</f>
         <v>26095.803596134017</v>
       </c>
-      <c r="F8" s="22">
+      <c r="F8" s="21">
         <f>F2/360*D8</f>
         <v>26181.260266666668</v>
       </c>
       <c r="G8">
-        <f>F8-E8</f>
+        <f t="shared" ref="G8:G13" si="0">F8-E8</f>
         <v>85.456670532650605</v>
       </c>
       <c r="I8">
@@ -1253,18 +1254,18 @@
         <f>M2/L2*L8</f>
         <v>2028.7590361445793</v>
       </c>
-      <c r="N8" s="22">
+      <c r="N8" s="21">
         <f>N2/360*L8</f>
         <v>2095.4826666666668</v>
       </c>
       <c r="O8">
-        <f>N8-M8</f>
+        <f t="shared" ref="O8:O13" si="1">N8-M8</f>
         <v>66.723630522087433</v>
       </c>
       <c r="S8">
         <v>30</v>
       </c>
-      <c r="T8" s="23">
+      <c r="T8" s="22">
         <f>T2/360*30</f>
         <v>4259.1111111111104</v>
       </c>
@@ -1284,12 +1285,12 @@
         <f>E2/D2*D9</f>
         <v>25086.212134020614</v>
       </c>
-      <c r="F9" s="23">
+      <c r="F9" s="22">
         <f>F2/360*D9</f>
         <v>25168.362666666668</v>
       </c>
       <c r="G9">
-        <f t="shared" ref="G9:G13" si="0">F9-E9</f>
+        <f t="shared" si="0"/>
         <v>82.150532646053762</v>
       </c>
       <c r="I9">
@@ -1306,15 +1307,21 @@
         <f>M2/L2*L9</f>
         <v>2066.9759036144587</v>
       </c>
-      <c r="N9" s="23">
+      <c r="N9" s="22">
         <f>N2/360*L9</f>
         <v>2134.9564444444445</v>
       </c>
       <c r="O9">
-        <f t="shared" ref="O9:O13" si="1">N9-M9</f>
+        <f t="shared" si="1"/>
         <v>67.980540829985785</v>
       </c>
-      <c r="T9" s="23"/>
+      <c r="S9">
+        <v>60</v>
+      </c>
+      <c r="T9" s="22">
+        <f>T2/360*S9</f>
+        <v>8518.2222222222208</v>
+      </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10">
@@ -1331,7 +1338,7 @@
         <f>E2/D2*D10</f>
         <v>24105.5545435567</v>
       </c>
-      <c r="F10" s="23">
+      <c r="F10" s="22">
         <f>F2/360*D10</f>
         <v>24184.493688888891</v>
       </c>
@@ -1353,7 +1360,7 @@
         <f>M2/L2*L10</f>
         <v>2154.3807228915671</v>
       </c>
-      <c r="N10" s="23">
+      <c r="N10" s="22">
         <f>N2/360*L10</f>
         <v>2225.2359111111114</v>
       </c>
@@ -1361,7 +1368,7 @@
         <f t="shared" si="1"/>
         <v>70.855188219544289</v>
       </c>
-      <c r="T10" s="23"/>
+      <c r="T10" s="22"/>
     </row>
     <row r="11" spans="1:20">
       <c r="A11">
@@ -1378,7 +1385,7 @@
         <f>E2/D2*D11</f>
         <v>23150.309201546388</v>
       </c>
-      <c r="F11" s="23">
+      <c r="F11" s="22">
         <f>F2/360*D11</f>
         <v>23226.120177777775</v>
       </c>
@@ -1400,7 +1407,7 @@
         <f>M2/L2*L11</f>
         <v>2287.5373493975908</v>
       </c>
-      <c r="N11" s="23">
+      <c r="N11" s="22">
         <f>N2/360*L11</f>
         <v>2362.7719111111105</v>
       </c>
@@ -1408,7 +1415,7 @@
         <f t="shared" si="1"/>
         <v>75.234561713519724</v>
       </c>
-      <c r="T11" s="23"/>
+      <c r="T11" s="22"/>
     </row>
     <row r="12" spans="1:20">
       <c r="A12">
@@ -1425,7 +1432,7 @@
         <f>E2/D2*D12</f>
         <v>22218.116014432988</v>
       </c>
-      <c r="F12" s="23">
+      <c r="F12" s="22">
         <f>F2/360*D12</f>
         <v>22290.874311111114</v>
       </c>
@@ -1447,7 +1454,7 @@
         <f>M2/L2*L12</f>
         <v>2463.7373493975897</v>
       </c>
-      <c r="N12" s="23">
+      <c r="N12" s="22">
         <f>N2/360*L12</f>
         <v>2544.766933333332</v>
       </c>
@@ -1455,7 +1462,7 @@
         <f t="shared" si="1"/>
         <v>81.029583935742266</v>
       </c>
-      <c r="T12" s="23"/>
+      <c r="T12" s="22"/>
     </row>
     <row r="13" spans="1:20" ht="15.75" thickBot="1">
       <c r="A13">
@@ -1472,7 +1479,7 @@
         <f>E2/D2*D13</f>
         <v>21307.490244329892</v>
       </c>
-      <c r="F13" s="24">
+      <c r="F13" s="23">
         <f>F2/360*D13</f>
         <v>21377.266488888887</v>
       </c>
@@ -1494,7 +1501,7 @@
         <f>M2/L2*L13</f>
         <v>2680.7590361445787</v>
       </c>
-      <c r="N13" s="24">
+      <c r="N13" s="23">
         <f>N2/360*L13</f>
         <v>2768.9262222222214</v>
       </c>
@@ -1502,7 +1509,12 @@
         <f t="shared" si="1"/>
         <v>88.167186077642782</v>
       </c>
-      <c r="T13" s="24"/>
+      <c r="T13" s="23"/>
+    </row>
+    <row r="20" spans="12:12">
+      <c r="L20" t="s">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
